--- a/smoke/data.xlsx
+++ b/smoke/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$C$1:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,9 +337,6 @@
     <t>cmamuat.dbadmin</t>
   </si>
   <si>
-    <t>sm_testing</t>
-  </si>
-  <si>
     <t>smnln1</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>smnln8</t>
+  </si>
+  <si>
+    <t>sm_testing_2</t>
   </si>
 </sst>
 </file>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
         <v>31</v>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>86</v>
@@ -1624,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>86</v>
@@ -1648,7 +1648,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>86</v>
@@ -1675,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>86</v>
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>86</v>
@@ -1729,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>86</v>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>86</v>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>86</v>

--- a/smoke/data.xlsx
+++ b/smoke/data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId3"/>
-    <sheet name="details " sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3 " sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$C$1:$C$9</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>CMU Type</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Passw01!</t>
-  </si>
-  <si>
-    <t>Auction frame no.</t>
   </si>
   <si>
     <t>Auction title</t>
@@ -337,31 +334,70 @@
     <t>cmamuat.dbadmin</t>
   </si>
   <si>
-    <t>smnln1</t>
-  </si>
-  <si>
-    <t>smnln2</t>
-  </si>
-  <si>
-    <t>smnln3</t>
-  </si>
-  <si>
-    <t>smnln4</t>
-  </si>
-  <si>
-    <t>smnln5</t>
-  </si>
-  <si>
-    <t>smnln6</t>
-  </si>
-  <si>
-    <t>smnln7</t>
-  </si>
-  <si>
-    <t>smnln8</t>
-  </si>
-  <si>
     <t>sm_testing_2</t>
+  </si>
+  <si>
+    <t>smklo1</t>
+  </si>
+  <si>
+    <t>smklo2</t>
+  </si>
+  <si>
+    <t>smklo3</t>
+  </si>
+  <si>
+    <t>smklo4</t>
+  </si>
+  <si>
+    <t>smklo5</t>
+  </si>
+  <si>
+    <t>smklo6</t>
+  </si>
+  <si>
+    <t>smklo7</t>
+  </si>
+  <si>
+    <t>smklo8</t>
+  </si>
+  <si>
+    <t>Application Content</t>
+  </si>
+  <si>
+    <t>Existing Generating Unit CMU type Application.</t>
+  </si>
+  <si>
+    <t>EXGHistoricperiod1date</t>
+  </si>
+  <si>
+    <t>EXGHistoricperiod1deliverycapacity</t>
+  </si>
+  <si>
+    <t>EXGHistoricperiod1settlementcapacity</t>
+  </si>
+  <si>
+    <t>EXGHistoricPerformancePeriod2Date</t>
+  </si>
+  <si>
+    <t>EXGHistoricPerformancePeriod2DeliveredCapacity</t>
+  </si>
+  <si>
+    <t>EXGHistoricPerformancePeriod3Date</t>
+  </si>
+  <si>
+    <t>EXGHistoricPerformancePeriod3DeliveredCapacity</t>
+  </si>
+  <si>
+    <t>EXGHistoricPerformancePeriod3SettlementPeriod</t>
+  </si>
+  <si>
+    <t>EXGStartofDateRangeforHistoricPerformanceData</t>
+  </si>
+  <si>
+    <t>EXGEndofDateRangeforHistoricPerformanceData</t>
+  </si>
+  <si>
+    <t>Existing Generating CMU</t>
   </si>
 </sst>
 </file>
@@ -416,7 +452,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +477,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,11 +492,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,6 +546,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +837,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,16 +926,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="10">
         <v>43156</v>
@@ -881,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9">
         <v>2017</v>
@@ -892,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <f>EDATE(G1,0)</f>
@@ -926,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6">
         <f xml:space="preserve"> EDATE(C5,1)</f>
@@ -938,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5">
         <f>EDATE(C5,0)</f>
@@ -950,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
@@ -962,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5">
         <f>EDATE(C5,0)</f>
@@ -974,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
@@ -986,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
@@ -998,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <f xml:space="preserve"> EDATE(C5,1)</f>
@@ -1010,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6">
         <f xml:space="preserve"> EDATE(C6,1)</f>
@@ -1022,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6">
         <f xml:space="preserve"> EDATE(C7,1)</f>
@@ -1034,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
         <f xml:space="preserve"> EDATE(C8,1)</f>
@@ -1046,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5">
         <f>EDATE(C5,0)</f>
@@ -1058,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5">
         <f>EDATE(C5,1)</f>
@@ -1070,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5">
         <f>EDATE(C5,1)</f>
@@ -1082,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5">
         <f>EDATE(C5,0)</f>
@@ -1094,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5">
         <f>EDATE(C5,1)</f>
@@ -1106,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <f>EDATE(C5,0)</f>
@@ -1118,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <f>EDATE(C5,1)</f>
@@ -1130,7 +1195,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5">
         <f>EDATE(C5,0)</f>
@@ -1142,7 +1207,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5">
         <f>EDATE(C5,1)</f>
@@ -1154,7 +1219,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5">
         <f>EDATE(C5,1)</f>
@@ -1166,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5">
         <f>EDATE(C5,1)</f>
@@ -1178,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5">
         <f>EDATE(C5,1)</f>
@@ -1190,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="5">
         <f>EDATE(C5,1)</f>
@@ -1202,7 +1267,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5">
         <f>EDATE(C5,1)</f>
@@ -1214,7 +1279,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5">
         <f>EDATE(C5,1)</f>
@@ -1226,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="8">
         <v>500</v>
@@ -1237,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8">
         <v>600</v>
@@ -1248,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8">
         <v>700</v>
@@ -1259,7 +1324,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="8">
         <v>800</v>
@@ -1270,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="8">
         <v>900</v>
@@ -1281,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="8">
         <v>40</v>
@@ -1292,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="8">
         <v>50</v>
@@ -1303,7 +1368,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5">
         <f>EDATE(C5,1)</f>
@@ -1315,7 +1380,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5">
         <f>EDATE(C5,1)</f>
@@ -1327,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5">
         <f>EDATE(C5,1)</f>
@@ -1339,7 +1404,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="5">
         <f>EDATE(C5,1)</f>
@@ -1351,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="5">
         <f>EDATE(C5,1)</f>
@@ -1363,7 +1428,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="5">
         <f>EDATE(C5,1)</f>
@@ -1375,7 +1440,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="5">
         <f>EDATE(C5,1)</f>
@@ -1387,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="5">
         <f>EDATE(C5,1)</f>
@@ -1399,7 +1464,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="5">
         <f>EDATE(C5,1)</f>
@@ -1411,7 +1476,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5">
         <f>EDATE(C5,1)</f>
@@ -1423,7 +1488,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5">
         <f>EDATE(C5,1)</f>
@@ -1435,7 +1500,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="5">
         <f>EDATE(C5,1)</f>
@@ -1447,7 +1512,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5">
         <f>EDATE(C5,1)</f>
@@ -1459,7 +1524,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="5">
         <f>EDATE(C5,1)</f>
@@ -1471,7 +1536,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="5">
         <f>EDATE(C5,1)</f>
@@ -1483,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="5">
         <f>EDATE(C5,1)</f>
@@ -1495,7 +1560,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="5">
         <f>EDATE(C5,1)</f>
@@ -1507,7 +1572,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="5">
         <f>EDATE(C5,1)</f>
@@ -1519,10 +1584,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1601,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1618,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1574,13 +1639,13 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1594,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>12</v>
@@ -1627,7 +1692,7 @@
         <v>104</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>12</v>
@@ -1651,7 +1716,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -1666,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -1678,7 +1743,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -1708,7 +1773,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>12</v>
@@ -1732,7 +1797,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>12</v>
@@ -1744,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -1756,7 +1821,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>12</v>
@@ -1768,7 +1833,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -1780,7 +1845,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>12</v>
@@ -1789,35 +1854,35 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1828,24 +1893,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" customWidth="1"/>
+    <col min="11" max="11" width="49" customWidth="1"/>
+    <col min="12" max="12" width="44.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1">
+        <v>83</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="21">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/smoke/data.xlsx
+++ b/smoke/data.xlsx
@@ -914,7 +914,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,6 +1927,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="18" t="s">
         <v>111</v>
       </c>
@@ -1934,9 +1937,14 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
@@ -1950,101 +1958,101 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="21">
-        <v>43156</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="21">
-        <v>43156</v>
+        <v>43158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="21">
-        <v>43156</v>
+        <v>43159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="21">
-        <v>43156</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="21">
-        <v>43156</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D10" s="21">
-        <v>43156</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="21">
-        <v>43156</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="21">
-        <v>43156</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="21">
-        <v>43156</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">

--- a/smoke/data.xlsx
+++ b/smoke/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
   <si>
     <t>CMU Type</t>
   </si>
@@ -334,33 +334,6 @@
     <t>cmamuat.dbadmin</t>
   </si>
   <si>
-    <t>sm_testing_2</t>
-  </si>
-  <si>
-    <t>smklo1</t>
-  </si>
-  <si>
-    <t>smklo2</t>
-  </si>
-  <si>
-    <t>smklo3</t>
-  </si>
-  <si>
-    <t>smklo4</t>
-  </si>
-  <si>
-    <t>smklo5</t>
-  </si>
-  <si>
-    <t>smklo6</t>
-  </si>
-  <si>
-    <t>smklo7</t>
-  </si>
-  <si>
-    <t>smklo8</t>
-  </si>
-  <si>
     <t>Application Content</t>
   </si>
   <si>
@@ -398,6 +371,45 @@
   </si>
   <si>
     <t>Existing Generating CMU</t>
+  </si>
+  <si>
+    <t>auto2.dbadmin</t>
+  </si>
+  <si>
+    <t>auto2.mainadmin</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Am1a</t>
+  </si>
+  <si>
+    <t>sm14b1</t>
+  </si>
+  <si>
+    <t>sm14b2</t>
+  </si>
+  <si>
+    <t>sm14b3</t>
+  </si>
+  <si>
+    <t>sm14b4</t>
+  </si>
+  <si>
+    <t>sm14b5</t>
+  </si>
+  <si>
+    <t>sm14b6</t>
+  </si>
+  <si>
+    <t>sm14b7</t>
+  </si>
+  <si>
+    <t>sm14b8</t>
+  </si>
+  <si>
+    <t>sm_testing_15_april_1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +462,14 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -508,10 +528,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,8 +575,10 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,32 +857,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -867,7 +895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -875,20 +903,23 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -896,12 +927,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +953,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,13 +971,13 @@
         <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="10">
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,7 +1022,7 @@
       </c>
       <c r="C5" s="7">
         <f>EDATE(G1,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +1034,7 @@
       </c>
       <c r="C6" s="6">
         <f xml:space="preserve"> EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1007,7 +1046,7 @@
       </c>
       <c r="C7" s="5">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,7 +1058,7 @@
       </c>
       <c r="C8" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1031,7 +1070,7 @@
       </c>
       <c r="C9" s="5">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1043,7 +1082,7 @@
       </c>
       <c r="C10" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1055,7 +1094,7 @@
       </c>
       <c r="C11" s="5">
         <f xml:space="preserve"> EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1067,7 +1106,7 @@
       </c>
       <c r="C12" s="6">
         <f xml:space="preserve"> EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1079,7 +1118,7 @@
       </c>
       <c r="C13" s="6">
         <f xml:space="preserve"> EDATE(C6,1)</f>
-        <v>43215</v>
+        <v>43245</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1091,7 +1130,7 @@
       </c>
       <c r="C14" s="6">
         <f xml:space="preserve"> EDATE(C7,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1103,7 +1142,7 @@
       </c>
       <c r="C15" s="6">
         <f xml:space="preserve"> EDATE(C8,1)</f>
-        <v>43215</v>
+        <v>43245</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1115,7 +1154,7 @@
       </c>
       <c r="C16" s="5">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1127,7 +1166,7 @@
       </c>
       <c r="C17" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1139,7 +1178,7 @@
       </c>
       <c r="C18" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1151,7 +1190,7 @@
       </c>
       <c r="C19" s="5">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1163,7 +1202,7 @@
       </c>
       <c r="C20" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1175,7 +1214,7 @@
       </c>
       <c r="C21" s="4">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1187,7 +1226,7 @@
       </c>
       <c r="C22" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1199,7 +1238,7 @@
       </c>
       <c r="C23" s="5">
         <f>EDATE(C5,0)</f>
-        <v>43156</v>
+        <v>43184</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1211,7 +1250,7 @@
       </c>
       <c r="C24" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1223,7 +1262,7 @@
       </c>
       <c r="C25" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1235,7 +1274,7 @@
       </c>
       <c r="C26" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1247,7 +1286,7 @@
       </c>
       <c r="C27" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1259,7 +1298,7 @@
       </c>
       <c r="C28" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1271,7 +1310,7 @@
       </c>
       <c r="C29" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1283,7 +1322,7 @@
       </c>
       <c r="C30" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1372,7 +1411,7 @@
       </c>
       <c r="C38" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1384,7 +1423,7 @@
       </c>
       <c r="C39" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1396,7 +1435,7 @@
       </c>
       <c r="C40" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1408,7 +1447,7 @@
       </c>
       <c r="C41" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1420,7 +1459,7 @@
       </c>
       <c r="C42" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1432,7 +1471,7 @@
       </c>
       <c r="C43" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1444,7 +1483,7 @@
       </c>
       <c r="C44" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1456,7 +1495,7 @@
       </c>
       <c r="C45" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1468,7 +1507,7 @@
       </c>
       <c r="C46" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1480,7 +1519,7 @@
       </c>
       <c r="C47" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1492,7 +1531,7 @@
       </c>
       <c r="C48" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1504,7 +1543,7 @@
       </c>
       <c r="C49" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1516,7 +1555,7 @@
       </c>
       <c r="C50" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1528,7 +1567,7 @@
       </c>
       <c r="C51" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1540,7 +1579,7 @@
       </c>
       <c r="C52" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1552,7 +1591,7 @@
       </c>
       <c r="C53" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1564,7 +1603,7 @@
       </c>
       <c r="C54" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1576,7 +1615,7 @@
       </c>
       <c r="C55" s="5">
         <f>EDATE(C5,1)</f>
-        <v>43184</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1598,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>85</v>
@@ -1689,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>85</v>
@@ -1713,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>85</v>
@@ -1740,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>85</v>
@@ -1770,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>85</v>
@@ -1794,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>85</v>
@@ -1818,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>85</v>
@@ -1842,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>85</v>
@@ -1851,6 +1890,9 @@
         <v>12</v>
       </c>
       <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1859,11 +1901,13 @@
       <c r="B11" s="15" t="s">
         <v>100</v>
       </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>95</v>
       </c>
+      <c r="E12" s="8"/>
       <c r="G12" s="13" t="s">
         <v>95</v>
       </c>
@@ -1871,19 +1915,32 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
+      <c r="E13" s="8"/>
       <c r="G13" s="14" t="s">
         <v>93</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,10 +2004,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" s="21">
         <v>43156</v>
@@ -1961,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D5" s="21">
         <v>43157</v>
@@ -1972,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D6" s="21">
         <v>43158</v>
@@ -1983,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D7" s="21">
         <v>43159</v>
@@ -1994,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D8" s="21">
         <v>43160</v>
@@ -2005,7 +2062,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D9" s="21">
         <v>43161</v>
@@ -2016,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D10" s="21">
         <v>43162</v>
@@ -2027,7 +2084,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21">
         <v>43163</v>
@@ -2038,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D12" s="21">
         <v>43164</v>
@@ -2049,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D13" s="21">
         <v>43165</v>
